--- a/DamageSim+BaseValues.xlsx
+++ b/DamageSim+BaseValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\exedev\Prototype\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78429D0B-11DD-4C4E-A200-F7738CACC715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAACA7D-488D-44C9-9A43-2AEA15C9A36C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FE1A4C0-8E16-495D-B1C7-0D04D6773A80}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Level</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Current time-to-kill(assuming mob level == character)</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>ManaBase</t>
   </si>
   <si>
@@ -181,13 +178,73 @@
   </si>
   <si>
     <t>IntellectCurr/VitalityCurr/AgilityCurr. (e.g.IntellectBase * IntellectMod)</t>
+  </si>
+  <si>
+    <t>Gem Slot 1</t>
+  </si>
+  <si>
+    <t>Gem Slot 2</t>
+  </si>
+  <si>
+    <t>Gem Slot 3</t>
+  </si>
+  <si>
+    <t>Enchant</t>
+  </si>
+  <si>
+    <t>Trinket 1</t>
+  </si>
+  <si>
+    <t>Trinket 2</t>
+  </si>
+  <si>
+    <t>Intellect</t>
+  </si>
+  <si>
+    <t>Gem example: Red gem = Increase Intellect by 15</t>
+  </si>
+  <si>
+    <t>IntellectBase</t>
+  </si>
+  <si>
+    <t>IntellectMod</t>
+  </si>
+  <si>
+    <t>IntellectCurr</t>
+  </si>
+  <si>
+    <t>AgilityMod</t>
+  </si>
+  <si>
+    <t>AgilityCurr</t>
+  </si>
+  <si>
+    <t>VitalityMod</t>
+  </si>
+  <si>
+    <t>VitalityCurr</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Current Variables</t>
+  </si>
+  <si>
+    <t>Do I Need?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +282,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +332,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,40 +366,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,651 +857,2353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6D7CFF-7B5B-4EDB-ACC6-0255068D08B5}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:EI984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="21" max="139" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="20"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="20"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9" t="s">
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="20"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f>H30</f>
+        <v>1381</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5">
+        <f>O17</f>
+        <v>2275</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="20"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f>ROUND(A7*H34,2)</f>
+        <v>3452.5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5">
+        <f>LOOKUP($A$5,IntellectBase!A2:A61,IntellectBase!C2:C61)</f>
+        <v>1747</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>H30</f>
-        <v>452</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7">
+      <c r="P8" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>250</v>
+      </c>
+      <c r="R8" s="10">
+        <v>360</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="20"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="str">
+        <f>ROUND(H21/A8,2)*1000&amp;"ms"</f>
+        <v>10460ms</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="10">
+        <v>350</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>350</v>
+      </c>
+      <c r="R9" s="10">
+        <v>230</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="20"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="str">
+        <f>ROUND(H21/A8,4)*1&amp;"s"</f>
+        <v>10.4579s</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5">
+        <f>((H8+(H7*(A5*0.25)))*H9)</f>
+        <v>35872</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>334</v>
+      </c>
+      <c r="R10" s="10">
+        <v>350</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="20"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="str">
+        <f>ROUND((H21/A8)/60,4)*1&amp;"m"</f>
+        <v>0.1743m</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5">
+        <f>((H8+(H7*(A5*0.25)))*H9)</f>
+        <v>35872</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="10">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>150</v>
+      </c>
+      <c r="R11" s="10">
+        <v>150</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="20"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="str">
+        <f>ROUND(((H21/A8)/60)/60,2)&amp;"h"</f>
+        <v>0h</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5">
+        <f>H13*(1+H14)+(H10/100)</f>
+        <v>364.72</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="10">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>500</v>
+      </c>
+      <c r="R12" s="10">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="20"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="10">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>500</v>
+      </c>
+      <c r="R13" s="10">
+        <v>500</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5">
+        <f>H12*5</f>
+        <v>1823.6000000000001</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="5">
         <f>LOOKUP($A$5,IntellectBase!A2:A61,IntellectBase!B2:B61)</f>
         <v>125</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>ROUND(A7*H34,2)</f>
-        <v>545.41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7">
-        <f>LOOKUP($A$5,IntellectBase!A2:A61,IntellectBase!C2:C61)</f>
-        <v>1747</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
-        <f>ROUND(H21/A8,2)*100&amp;"ms"</f>
-        <v>872ms</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="P15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
-        <f>ROUND(H21/A8,2)*1&amp;"s"</f>
-        <v>8.72s</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="7">
-        <f>((H8+(H7*(A5*0.25)))*H9)</f>
-        <v>3622</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="20"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="5">
+        <f>SUM(P8:P13)</f>
+        <v>2150</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
-        <f>ROUND((H21/A8)/60,2)*1&amp;"m"</f>
-        <v>0.15m</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="7">
-        <f>((H8+(H7*(A5*0.25)))*H9)</f>
-        <v>3622</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="20"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5">
+        <f>O21</f>
+        <v>2215</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="5">
+        <f>O15+O16</f>
+        <v>2275</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
-        <f>ROUND(((H21/A8)/60)/60,2)&amp;"h"</f>
-        <v>0h</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="7">
-        <f>H13*(1+H14)+(H10/100)</f>
-        <v>42.22</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="20"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5">
+        <f>LOOKUP($A$5,VitalityBase!A2:A61,VitalityBase!C2:C61)</f>
+        <v>2881</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="7">
-        <f>H12*5</f>
-        <v>211.1</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="7">
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="20"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="5">
         <f>LOOKUP($A$5,VitalityBase!A2:A61,VitalityBase!B2:B61)</f>
         <v>125</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="P19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5">
+        <f>((H18+(H17*($A$5*0.25)))*H19)</f>
+        <v>36106</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="5">
+        <f>SUM(R8:R13)</f>
+        <v>2090</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5">
+        <f>((H18+(H17*($A$5*0.25)))*H19)</f>
+        <v>36106</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="5">
+        <f>O19+O20</f>
+        <v>2215</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5">
+        <f>H23*(1+H24)+(H20/100)</f>
+        <v>367.06</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="7">
-        <f>LOOKUP($A$5,VitalityBase!A2:A61,VitalityBase!C2:C61)</f>
-        <v>2881</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="7">
-        <f>((H18+(H17*($A$5*0.25)))*H19)</f>
-        <v>4756</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="7">
-        <f>((H18+(H17*($A$5*0.25)))*H19)</f>
-        <v>4756</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="7">
-        <f>H23*(1+H24)+(H20/100)</f>
-        <v>53.56</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="20"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5">
+        <v>3</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="7">
-        <f>H22*5</f>
-        <v>267.8</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="7">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="5">
         <f>LOOKUP($A$5,AgilityBase!A2:A61,AgilityBase!B2:B61)</f>
         <v>31</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="7">
+      <c r="P23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="20"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="5">
+        <f>SUM(Q8:Q13)</f>
+        <v>2084</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="20"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5">
+        <f>H22*5</f>
+        <v>1835.3</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="5">
+        <f>O23+O24</f>
+        <v>2115</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="20"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5">
+        <f>O25</f>
+        <v>2115</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5">
         <f>LOOKUP($A$5,AgilityBase!A2:A61,AgilityBase!C2:C61)</f>
         <v>437</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="5">
+        <f>(((H7/5)*H37)/100)+((H27*H36)/10)+1</f>
+        <v>3.1605000000000003</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7">
-        <f>(((H7/5)*H37)/100)+((H27*H36)/10)+1</f>
-        <v>1.0335000000000001</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="e">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="20"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="e">
         <f>ROUND(B30+(B30*((ROUND(POWER($AB$81,B31)/100,2)))),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30" s="1" t="e">
         <f>LOOKUP(B31,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5">
         <f>ROUND(H28*H29,0)</f>
-        <v>452</v>
-      </c>
-      <c r="I30" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="20"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5">
+        <f>LOOKUP(A5,AgilityBase!A2:A61,AgilityBase!D2:D61)</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="20"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5" t="b">
+        <f>IF(H33&gt;=2.5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7">
-        <f>LOOKUP(A5,AgilityBase!A2:A61,AgilityBase!D2:D61)</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="b">
-        <f>IF(H33&gt;=2.5,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="20"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5">
+        <f>((H27/15)*0.1)+1</f>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="7">
-        <f>((H27/15)*0.1)+1</f>
-        <v>1.2066666666666668</v>
-      </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="20"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="5">
+        <f>IF(H32=TRUE,2.5,H31*H33)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="4"/>
-      <c r="H34" s="7">
-        <f>IF(H32=TRUE,2.5,H31*H33)</f>
-        <v>1.2066666666666668</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="20"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="20"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
-      <c r="H36" s="7">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="5">
         <v>0.01</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
-      <c r="H37" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="902" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="903" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="904" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="905" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="906" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="907" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="908" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="909" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="910" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="911" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="912" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="913" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="914" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="915" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="916" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="917" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="918" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="919" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="920" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="921" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="922" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="923" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="924" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="925" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="926" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="927" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="928" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="929" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="930" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="931" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="932" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="933" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="934" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="935" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="936" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="937" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="938" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="939" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="940" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="941" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="942" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="943" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="944" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="945" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="946" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="947" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="948" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="949" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="950" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="951" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="952" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="953" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="954" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="955" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="956" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="957" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="958" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="959" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="960" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="961" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="962" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="963" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="964" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="965" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="966" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="967" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="968" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="969" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="970" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="971" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="972" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="973" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="974" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="975" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="976" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="977" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="978" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="979" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="980" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="981" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="982" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="983" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="984" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="49">
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="O3:S5"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E3:M3"/>
@@ -1975,7 +3905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84282A0C-04A3-49DB-B0E0-9865C7094F9F}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2662,7 +4592,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DamageSim+BaseValues.xlsx
+++ b/DamageSim+BaseValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\exedev\Prototype\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAACA7D-488D-44C9-9A43-2AEA15C9A36C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C16DE-440E-43D2-AA35-8AC73584301F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FE1A4C0-8E16-495D-B1C7-0D04D6773A80}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{2FE1A4C0-8E16-495D-B1C7-0D04D6773A80}"/>
   </bookViews>
   <sheets>
     <sheet name="DamageSim" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>Level</t>
   </si>
@@ -102,9 +102,6 @@
     <t>ManaCurrent</t>
   </si>
   <si>
-    <t>ManaRegen</t>
-  </si>
-  <si>
     <t>ManaRegenBase</t>
   </si>
   <si>
@@ -238,13 +235,22 @@
   </si>
   <si>
     <t>Do I Need?</t>
+  </si>
+  <si>
+    <t>ManaRegenCurr</t>
+  </si>
+  <si>
+    <t>ManaRegenCurrent</t>
+  </si>
+  <si>
+    <t>HealthRegenCurrent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +303,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +353,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -471,7 +489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -479,8 +497,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
@@ -489,35 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,12 +535,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="6" builtinId="10"/>
@@ -859,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6D7CFF-7B5B-4EDB-ACC6-0255068D08B5}">
   <dimension ref="A1:EI984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +891,12 @@
     <col min="21" max="139" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -894,137 +915,141 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="O2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="E4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="20"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="U4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>60</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="E5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="20"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1049,69 +1074,73 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f>H30</f>
         <v>1381</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="3"/>
       <c r="H7" s="5">
         <f>O17</f>
         <v>2275</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>28</v>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="20"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>ROUND(A7*H34,2)</f>
         <v>3452.5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="3"/>
       <c r="H8" s="5">
         <f>LOOKUP($A$5,IntellectBase!A2:A61,IntellectBase!C2:C61)</f>
@@ -1125,39 +1154,41 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="10">
+      <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="6">
         <v>250</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="6">
         <v>250</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="6">
         <v>360</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="20"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="str">
+      <c r="U8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="str">
         <f>ROUND(H21/A8,2)*1000&amp;"ms"</f>
         <v>10460ms</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5">
         <v>1</v>
@@ -1170,39 +1201,41 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="10">
+      <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="6">
         <v>350</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="6">
         <v>350</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="6">
         <v>230</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="str">
+      <c r="U9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="str">
         <f>ROUND(H21/A8,4)*1&amp;"s"</f>
         <v>10.4579s</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="3"/>
       <c r="H10" s="5">
         <f>((H8+(H7*(A5*0.25)))*H9)</f>
@@ -1216,39 +1249,41 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="10">
+      <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="6">
         <v>400</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="6">
         <v>334</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="6">
         <v>350</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="20"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="str">
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="str">
         <f>ROUND((H21/A8)/60,4)*1&amp;"m"</f>
         <v>0.1743m</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="3"/>
       <c r="H11" s="5">
         <f>((H8+(H7*(A5*0.25)))*H9)</f>
@@ -1262,74 +1297,78 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="10">
+      <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="6">
         <v>150</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="6">
         <v>150</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="6">
         <v>150</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="str">
+      <c r="U11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="str">
         <f>ROUND(((H21/A8)/60)/60,2)&amp;"h"</f>
         <v>0h</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="3"/>
       <c r="H12" s="5">
         <f>H13*(1+H14)+(H10/100)</f>
         <v>364.72</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="10">
+      <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="6">
         <v>500</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="6">
         <v>500</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="6">
         <v>500</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1341,35 +1380,37 @@
         <v>3</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="10">
+      <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="6">
         <v>500</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="6">
         <v>500</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="6">
         <v>500</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="18" t="s">
+      <c r="U13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="20"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1381,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1394,14 +1435,16 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1414,7 +1457,7 @@
         <v>1823.6000000000001</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1426,20 +1469,22 @@
         <v>125</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="18" t="s">
+      <c r="U15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="20"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1459,20 +1504,22 @@
         <v>2150</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="18" t="s">
+      <c r="U16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="20"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1485,7 +1532,7 @@
         <v>2215</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1497,20 +1544,22 @@
         <v>2275</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="20"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1536,14 +1585,16 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1555,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1573,14 +1624,16 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1593,7 +1646,7 @@
         <v>36106</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1605,23 +1658,23 @@
         <v>2090</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="23"/>
+      <c r="U20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1634,7 +1687,7 @@
         <v>36106</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1646,20 +1699,22 @@
         <v>2215</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="20"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1672,7 +1727,7 @@
         <v>367.06</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1685,14 +1740,16 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="20"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1704,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1722,14 +1779,16 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="20"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1741,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1753,20 +1812,22 @@
         <v>2084</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1779,7 +1840,7 @@
         <v>1835.3</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1791,20 +1852,22 @@
         <v>2115</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="20"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1825,14 +1888,16 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="20"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1845,7 +1910,7 @@
         <v>2115</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1858,14 +1923,16 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="20"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1878,7 +1945,7 @@
         <v>437</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1891,17 +1958,17 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="23"/>
+      <c r="U28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1985,7 @@
         <v>3.1605000000000003</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1931,14 +1998,16 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="20"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="e">
         <f>ROUND(B30+(B30*((ROUND(POWER($AB$81,B31)/100,2)))),0)</f>
         <v>#REF!</v>
@@ -1957,7 +2026,7 @@
         <v>1381</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1970,14 +2039,16 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="20"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1.0649999999999999</v>
       </c>
@@ -2007,14 +2078,16 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="20"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2027,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2040,14 +2113,16 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="18" t="s">
+      <c r="U32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="20"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2060,7 +2135,7 @@
         <v>15.100000000000001</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2073,14 +2148,17 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="20"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2093,7 +2171,7 @@
         <v>2.5</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2106,14 +2184,16 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="20"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2134,14 +2214,16 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="20"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2153,7 +2235,7 @@
         <v>0.01</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2166,17 +2248,18 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="24"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2188,7 +2271,7 @@
         <v>0.01</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -2201,27 +2284,28 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="U37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" s="24"/>
+    </row>
+    <row r="38" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3160,17 +3244,44 @@
     <row r="984" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="O3:S5"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="U29:X29"/>
     <mergeCell ref="U30:X30"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
     <mergeCell ref="U23:X23"/>
     <mergeCell ref="U24:X24"/>
     <mergeCell ref="U25:X25"/>
@@ -3182,33 +3293,6 @@
     <mergeCell ref="U21:X21"/>
     <mergeCell ref="U22:X22"/>
     <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="O3:S5"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
